--- a/Documents/Layout_Map_Push_Type.xlsx
+++ b/Documents/Layout_Map_Push_Type.xlsx
@@ -10,17 +10,14 @@
     <sheet name="PushType Controllino Mega" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PushType Controllino Mega'!$B$8:$K$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PushType Controllino Mega'!$B$6:$F$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
-  <si>
-    <t>Controllino Pinout</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Variable</t>
   </si>
@@ -216,14 +213,14 @@
 clamp / polarity</t>
   </si>
   <si>
-    <t>PINOUT TEST RIG</t>
+    <t>PINOUT  TEST RIG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,14 +254,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -653,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -664,46 +653,46 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,13 +701,69 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,9 +778,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,105 +787,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,13 +844,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1432624</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>10155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1116912</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -881,7 +858,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,13 +893,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>67854</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>8990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736676</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>184763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,10 +1220,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B6:L77"/>
+  <dimension ref="B6:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="B6:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,547 +1232,546 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="33" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="C8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="34" t="s">
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="3" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="5">
+      <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="56" t="s">
+      <c r="F16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="5">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="5">
-        <v>6</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="55"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="34"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="5">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5">
         <v>15</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="5">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="5">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="55"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="5">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="5">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="55"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="34"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>24</v>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="5">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="56" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="2:8" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5">
         <v>25</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="E30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5">
         <v>26</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="5">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="2:8" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>40</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="5">
-        <v>27</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="5">
-        <v>28</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="2:12" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="2:12" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="52" t="s">
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="62"/>
+      <c r="C37" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="55"/>
-    </row>
-    <row r="38" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="55"/>
-    </row>
-    <row r="39" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="50"/>
-      <c r="C39" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="66" t="s">
+    </row>
+    <row r="38" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="63"/>
+      <c r="C38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="55"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="33"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="34"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
     </row>
     <row r="41" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="54"/>
+      <c r="G41" s="34"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="55"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+    <row r="42" spans="2:12" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="55"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="2:12" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="55"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="55"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
@@ -1803,63 +1779,63 @@
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="55"/>
-    </row>
-    <row r="47" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="55"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="55"/>
-    </row>
-    <row r="49" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="55"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="2:12" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" spans="2:12" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="55"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="55"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
@@ -1867,71 +1843,81 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="55"/>
-    </row>
-    <row r="55" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="55"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="2:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="55"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="55"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="55"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="55"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="55"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="33"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
     </row>
     <row r="62" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="55"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="33"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
     </row>
     <row r="63" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
@@ -1939,7 +1925,7 @@
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="54"/>
+      <c r="G63" s="33"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -1952,7 +1938,7 @@
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="54"/>
+      <c r="G64" s="33"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
@@ -1965,7 +1951,7 @@
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="54"/>
+      <c r="G65" s="33"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
@@ -1978,7 +1964,7 @@
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="54"/>
+      <c r="G66" s="33"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
@@ -1991,7 +1977,7 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="54"/>
+      <c r="G67" s="33"/>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
@@ -2004,7 +1990,7 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="54"/>
+      <c r="G68" s="33"/>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
@@ -2017,7 +2003,7 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="54"/>
+      <c r="G69" s="33"/>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
@@ -2030,7 +2016,7 @@
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="54"/>
+      <c r="G70" s="33"/>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
@@ -2043,7 +2029,7 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="54"/>
+      <c r="G71" s="33"/>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
@@ -2056,7 +2042,7 @@
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="54"/>
+      <c r="G72" s="33"/>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
@@ -2069,7 +2055,7 @@
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="54"/>
+      <c r="G73" s="33"/>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
@@ -2082,7 +2068,7 @@
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="54"/>
+      <c r="G74" s="33"/>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
@@ -2095,59 +2081,31 @@
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="54"/>
+      <c r="G75" s="33"/>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="54"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-    </row>
-    <row r="77" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="54"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B52:F52"/>
+  <mergeCells count="12">
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
     <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B42:F42"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:B38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;10&amp;K01+024&amp;F / &amp;D</oddFooter>
   </headerFooter>

--- a/Documents/Layout_Map_Push_Type.xlsx
+++ b/Documents/Layout_Map_Push_Type.xlsx
@@ -10,14 +10,14 @@
     <sheet name="PushType Controllino Mega" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PushType Controllino Mega'!$B$6:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PushType Controllino Mega'!$B$6:$G$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>-</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>D0</t>
-  </si>
-  <si>
-    <t>CONTROLLINO DIGITAL OUTPUTS</t>
-  </si>
-  <si>
-    <t>CONTROLLINO INPUTS</t>
   </si>
   <si>
     <t>CONTROLLINO RELAYS</t>
@@ -179,9 +173,6 @@
     <t>ZylMesser</t>
   </si>
   <si>
-    <t>unconnected valve</t>
-  </si>
-  <si>
     <t>ZylGummihalter</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
   </si>
   <si>
     <t>tool red cable</t>
-  </si>
-  <si>
-    <t>unconnected clamp</t>
   </si>
   <si>
     <t>SENSOR_PLOMBE</t>
@@ -225,6 +213,56 @@
   <si>
     <t>PLC
 pin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONTROLLINO DIGITAL OUTPUTS 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LOW = 0V, HIGH = 24V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONTROLLINO INPUTS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LOW = 0-7.2V, HIGH = 18-24V)</t>
+    </r>
+  </si>
+  <si>
+    <t>BANDSENSOR_OBEN</t>
+  </si>
+  <si>
+    <t>BANDSENSOR_UNTEN</t>
+  </si>
+  <si>
+    <t>+ / -</t>
+  </si>
+  <si>
+    <t>signal green, + red, - black, teach yellow</t>
+  </si>
+  <si>
+    <t>(unconnected valve)</t>
+  </si>
+  <si>
+    <t>BANDSENSOR-Type: SICK WTB2S-2P3275S36, Sensing Range: 6 … 50mm, Sensor colors: +=brown, -=blue, output=black, teach=white, output switches high if strap is detected, to teach connect teach to gnd</t>
   </si>
 </sst>
 </file>
@@ -289,14 +327,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,6 +408,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -825,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -857,51 +893,45 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,41 +943,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -957,49 +960,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1008,6 +975,78 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -1027,64 +1066,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509431</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1468211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1071038</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1824403</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4890931" y="8692557"/>
-          <a:ext cx="1120365" cy="356192"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>155777</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>148200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>520373</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2990973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1095,7 +1085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1405,10 +1395,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B5:L73"/>
+  <dimension ref="A5:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,53 +1407,53 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32" style="21" customWidth="1"/>
+    <col min="7" max="7" width="32" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" s="32" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="2:8" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="41" t="s">
+      <c r="B8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
-        <v>49</v>
+      <c r="B10" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
@@ -1472,14 +1462,14 @@
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>50</v>
+      <c r="B11" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2">
@@ -1488,14 +1478,14 @@
       <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>51</v>
+      <c r="B12" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2">
@@ -1504,14 +1494,14 @@
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>52</v>
+      <c r="B13" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2">
@@ -1520,15 +1510,15 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="35"/>
       <c r="H13"/>
     </row>
     <row r="14" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
-        <v>53</v>
+      <c r="B14" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="2">
@@ -1537,15 +1527,15 @@
       <c r="E14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="35"/>
       <c r="H14"/>
     </row>
     <row r="15" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
-        <v>53</v>
+      <c r="B15" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="2">
@@ -1554,15 +1544,15 @@
       <c r="E15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="35"/>
       <c r="H15"/>
     </row>
     <row r="16" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
-        <v>54</v>
+      <c r="B16" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2">
@@ -1571,15 +1561,15 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="35"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>55</v>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2">
@@ -1588,15 +1578,15 @@
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="35"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
-        <v>56</v>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
@@ -1605,15 +1595,15 @@
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="35"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
-        <v>53</v>
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="2">
@@ -1622,15 +1612,15 @@
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="35"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>53</v>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="2">
@@ -1639,15 +1629,15 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="35"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
-        <v>57</v>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2">
@@ -1656,15 +1646,15 @@
       <c r="E21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="35"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
-        <v>58</v>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2">
@@ -1673,247 +1663,266 @@
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="35"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
-        <v>62</v>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="2">
         <v>16</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="35"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="50"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
-      <c r="C25" s="17"/>
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="24" t="s">
+      <c r="E25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="31" t="s">
+      <c r="G25" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="G26" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
-        <v>45</v>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="45" t="s">
+      <c r="F30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
-        <v>43</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="54" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="2:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="E34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="G35" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="61"/>
+      <c r="C36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="46"/>
-    </row>
-    <row r="34" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27" t="s">
+      <c r="F36" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="61"/>
+      <c r="C37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
-      <c r="C35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="3" customFormat="1" ht="253.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="61"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="22"/>
+      <c r="G37" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="3" customFormat="1" ht="253.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="41"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -1921,36 +1930,36 @@
       <c r="L38"/>
     </row>
     <row r="39" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="22"/>
+      <c r="G39" s="20"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="2:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="22"/>
+    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="20"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="2:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="22"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
@@ -1958,7 +1967,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="22"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
@@ -1966,55 +1975,55 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="22"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="2:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="22"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="22"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
@@ -2022,7 +2031,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="22"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
@@ -2030,68 +2039,63 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="22"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="22"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="22"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="22"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="22"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="21"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
@@ -2099,7 +2103,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="19"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
@@ -2112,7 +2116,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="19"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
@@ -2125,7 +2129,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="19"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
@@ -2138,7 +2142,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="19"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -2151,7 +2155,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="19"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
@@ -2164,7 +2168,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="19"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
@@ -2177,7 +2181,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="19"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
@@ -2190,7 +2194,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="19"/>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
@@ -2203,7 +2207,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="19"/>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
@@ -2216,7 +2220,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="19"/>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
@@ -2229,7 +2233,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="19"/>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
@@ -2242,7 +2246,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="19"/>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
@@ -2255,7 +2259,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="19"/>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
@@ -2268,26 +2272,40 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="19"/>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
     </row>
+    <row r="74" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="19"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B49:F49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documents/Layout_Map_Push_Type.xlsx
+++ b/Documents/Layout_Map_Push_Type.xlsx
@@ -262,7 +262,7 @@
     <t>(unconnected valve)</t>
   </si>
   <si>
-    <t>BANDSENSOR-Type: SICK WTB2S-2P3275S36, Sensing Range: 6 … 50mm, Sensor colors: +=brown, -=blue, output=black, teach=white, output switches high if strap is detected, to teach connect teach to gnd</t>
+    <t>BANDSENSOR-Type: SICK WTB2S-2P3275S36; Sensing Range: 6 … 50mm, Sensor colors: +=brown, -=blue, output=black, teach=white; output switches high if strap is detected; to teach set teach high</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1397,8 @@
   </sheetPr>
   <dimension ref="A5:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="2:8" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:8" s="30" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
         <v>62</v>

--- a/Documents/Layout_Map_Push_Type.xlsx
+++ b/Documents/Layout_Map_Push_Type.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>-</t>
   </si>
@@ -79,9 +79,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>braun+/blau-</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>n.a.</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
@@ -119,15 +113,6 @@
   </si>
   <si>
     <t>R9</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>yellow</t>
   </si>
   <si>
     <t>connect GND of all devices</t>
@@ -256,13 +241,78 @@
     <t>+ / -</t>
   </si>
   <si>
-    <t>signal green, + red, - black, teach yellow</t>
-  </si>
-  <si>
     <t>(unconnected valve)</t>
   </si>
   <si>
-    <t>BANDSENSOR-Type: SICK WTB2S-2P3275S36; Sensing Range: 6 … 50mm, Sensor colors: +=brown, -=blue, output=black, teach=white; output switches high if strap is detected; to teach set teach high</t>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>signal=GN, +=RD, GND=BK, teach=YL</t>
+  </si>
+  <si>
+    <t>+=BN, GND=BL</t>
+  </si>
+  <si>
+    <t>Strapsensor-Type: SICK WTB2S-2P3275S36; sensing range: 6 … 50mm; 
+sensor colors: +=BN, GND=BL, signal=BK, teach=WT;
+output switches high if strap is detected; to teach, set teach high</t>
   </si>
 </sst>
 </file>
@@ -861,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -975,6 +1025,33 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,60 +1070,43 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -1072,8 +1132,8 @@
       <xdr:rowOff>148200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520373</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>124720</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>2990973</xdr:rowOff>
     </xdr:to>
@@ -1395,65 +1455,65 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:L74"/>
+  <dimension ref="A5:N74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32" style="19" customWidth="1"/>
+    <col min="3" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="2:8" s="30" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="52"/>
       <c r="F8" s="32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
@@ -1463,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2">
@@ -1485,7 +1545,7 @@
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2">
@@ -1501,7 +1561,7 @@
     </row>
     <row r="13" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2">
@@ -1518,7 +1578,7 @@
     </row>
     <row r="14" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="2">
@@ -1535,7 +1595,7 @@
     </row>
     <row r="15" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="2">
@@ -1552,7 +1612,7 @@
     </row>
     <row r="16" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2">
@@ -1567,9 +1627,9 @@
       <c r="G16" s="35"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2">
@@ -1584,9 +1644,9 @@
       <c r="G17" s="35"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
@@ -1601,9 +1661,9 @@
       <c r="G18" s="35"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="2">
@@ -1618,9 +1678,9 @@
       <c r="G19" s="35"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="2">
@@ -1635,9 +1695,9 @@
       <c r="G20" s="35"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2">
@@ -1651,10 +1711,12 @@
       </c>
       <c r="G21" s="35"/>
       <c r="H21"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2">
@@ -1668,10 +1730,12 @@
       </c>
       <c r="G22" s="35"/>
       <c r="H22"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="2">
@@ -1683,151 +1747,165 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>34</v>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+    </row>
+    <row r="27" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="68" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
       <c r="G27" s="70"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="s">
-        <v>46</v>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2">
         <v>25</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="2">
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>23</v>
-      </c>
       <c r="G30" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2">
         <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+    </row>
+    <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
       <c r="B32" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="2">
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32"/>
@@ -1835,88 +1913,98 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-    </row>
-    <row r="33" spans="2:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-    </row>
-    <row r="34" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+    </row>
+    <row r="33" spans="2:14" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+    </row>
+    <row r="34" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+    </row>
+    <row r="35" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
+        <v>52</v>
+      </c>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+    </row>
+    <row r="36" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="55"/>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+    </row>
+    <row r="37" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="55"/>
       <c r="C37" s="14" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="3" customFormat="1" ht="253.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" s="3" customFormat="1" ht="253.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="39"/>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -1928,8 +2016,10 @@
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-    </row>
-    <row r="39" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+    </row>
+    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G39" s="20"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1937,103 +2027,170 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G40" s="20"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-    </row>
-    <row r="41" spans="2:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+    </row>
+    <row r="41" spans="2:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="J41" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+    </row>
+    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+    </row>
+    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+    </row>
+    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+    </row>
+    <row r="45" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" s="73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="2:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+    </row>
+    <row r="49" spans="2:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="J49" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+    </row>
+    <row r="50" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+    </row>
+    <row r="51" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+    </row>
+    <row r="52" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -2041,7 +2198,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -2049,7 +2206,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="2:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -2057,7 +2214,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -2065,7 +2222,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -2073,31 +2230,31 @@
       <c r="F56" s="10"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
+    <row r="57" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
+    <row r="58" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
+    <row r="59" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2110,7 +2267,7 @@
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2123,7 +2280,7 @@
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2136,7 +2293,7 @@
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2149,7 +2306,7 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2294,6 +2451,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="B59:F59"/>
@@ -2301,15 +2463,10 @@
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B49:F49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;10&amp;K01+024&amp;F / &amp;D</oddFooter>
   </headerFooter>
